--- a/all_in_one.xlsx
+++ b/all_in_one.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="131">
   <si>
     <t>Action</t>
   </si>
@@ -28,114 +28,354 @@
     <t>龙门币</t>
   </si>
   <si>
+    <t>RMA70-12</t>
+  </si>
+  <si>
+    <t>RMA70-24</t>
+  </si>
+  <si>
+    <t>三水锰矿</t>
+  </si>
+  <si>
+    <t>中级作战记录</t>
+  </si>
+  <si>
+    <t>五水研磨石</t>
+  </si>
+  <si>
+    <t>代糖</t>
+  </si>
+  <si>
+    <t>全新装置</t>
+  </si>
+  <si>
+    <t>初级作战记录</t>
+  </si>
+  <si>
+    <t>双酮</t>
+  </si>
+  <si>
+    <t>固源岩</t>
+  </si>
+  <si>
+    <t>固源岩组</t>
+  </si>
+  <si>
+    <t>基础作战记录</t>
+  </si>
+  <si>
+    <t>家具</t>
+  </si>
+  <si>
+    <t>异铁</t>
+  </si>
+  <si>
+    <t>异铁块</t>
+  </si>
+  <si>
+    <t>异铁碎片</t>
+  </si>
+  <si>
+    <t>异铁组</t>
+  </si>
+  <si>
+    <t>扭转醇</t>
+  </si>
+  <si>
+    <t>技巧概要·卷1</t>
+  </si>
+  <si>
+    <t>技巧概要·卷2</t>
+  </si>
+  <si>
+    <t>技巧概要·卷3</t>
+  </si>
+  <si>
+    <t>提纯源岩</t>
+  </si>
+  <si>
+    <t>改量装置</t>
+  </si>
+  <si>
+    <t>源岩</t>
+  </si>
+  <si>
+    <t>白马醇</t>
+  </si>
+  <si>
+    <t>研磨石</t>
+  </si>
+  <si>
+    <t>破损装置</t>
+  </si>
+  <si>
+    <t>碳</t>
+  </si>
+  <si>
+    <t>碳素</t>
+  </si>
+  <si>
+    <t>碳素组</t>
+  </si>
+  <si>
+    <t>糖</t>
+  </si>
+  <si>
+    <t>糖组</t>
+  </si>
+  <si>
+    <t>糖聚块</t>
+  </si>
+  <si>
+    <t>聚酸酯</t>
+  </si>
+  <si>
+    <t>聚酸酯块</t>
+  </si>
+  <si>
+    <t>聚酸酯组</t>
+  </si>
+  <si>
+    <t>装置</t>
+  </si>
+  <si>
+    <t>赤金</t>
+  </si>
+  <si>
+    <t>轻锰矿</t>
+  </si>
+  <si>
+    <t>酮凝集</t>
+  </si>
+  <si>
+    <t>酮凝集组</t>
+  </si>
+  <si>
+    <t>酮阵列</t>
+  </si>
+  <si>
+    <t>酯原料</t>
+  </si>
+  <si>
+    <t>1-12</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>1-7</t>
+  </si>
+  <si>
+    <t>1-8</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>CA-1</t>
+  </si>
+  <si>
+    <t>CA-2</t>
+  </si>
+  <si>
+    <t>CA-3</t>
+  </si>
+  <si>
+    <t>CA-4</t>
+  </si>
+  <si>
+    <t>CA-5</t>
+  </si>
+  <si>
+    <t>CE-1</t>
+  </si>
+  <si>
+    <t>CE-2</t>
+  </si>
+  <si>
+    <t>CE-3</t>
+  </si>
+  <si>
+    <t>CE-4</t>
+  </si>
+  <si>
+    <t>CE-5</t>
+  </si>
+  <si>
+    <t>LS-1</t>
+  </si>
+  <si>
+    <t>LS-2</t>
+  </si>
+  <si>
+    <t>LS-3</t>
+  </si>
+  <si>
+    <t>LS-4</t>
+  </si>
+  <si>
+    <t>LS-5</t>
+  </si>
+  <si>
+    <t>S2-1</t>
+  </si>
+  <si>
+    <t>S2-12</t>
+  </si>
+  <si>
+    <t>S2-4</t>
+  </si>
+  <si>
+    <t>S2-5</t>
+  </si>
+  <si>
+    <t>S2-6</t>
+  </si>
+  <si>
+    <t>S2-7</t>
+  </si>
+  <si>
+    <t>S2-8</t>
+  </si>
+  <si>
+    <t>S2-9</t>
+  </si>
+  <si>
+    <t>S3-1</t>
+  </si>
+  <si>
+    <t>S3-2</t>
+  </si>
+  <si>
+    <t>S3-3</t>
+  </si>
+  <si>
+    <t>S3-4</t>
+  </si>
+  <si>
+    <t>S4-1</t>
+  </si>
+  <si>
+    <t>S4-2</t>
+  </si>
+  <si>
+    <t>S4-3</t>
+  </si>
+  <si>
+    <t>S4-4</t>
+  </si>
+  <si>
+    <t>S4-5</t>
+  </si>
+  <si>
+    <t>S4-6</t>
+  </si>
+  <si>
+    <t>S4-7</t>
+  </si>
+  <si>
+    <t>S4-8</t>
+  </si>
+  <si>
+    <t>S4-9</t>
+  </si>
+  <si>
+    <t>SK-1</t>
+  </si>
+  <si>
+    <t>SK-2</t>
+  </si>
+  <si>
+    <t>SK-3</t>
+  </si>
+  <si>
+    <t>SK-4</t>
+  </si>
+  <si>
+    <t>SK-5</t>
+  </si>
+  <si>
     <t>高级作战记录</t>
   </si>
   <si>
-    <t>中级作战记录</t>
-  </si>
-  <si>
-    <t>初级作战记录</t>
-  </si>
-  <si>
-    <t>基础作战记录</t>
-  </si>
-  <si>
-    <t>白马醇</t>
-  </si>
-  <si>
-    <t>扭转醇</t>
-  </si>
-  <si>
-    <t>三水锰矿</t>
-  </si>
-  <si>
-    <t>轻锰矿</t>
-  </si>
-  <si>
-    <t>五水研磨石</t>
-  </si>
-  <si>
-    <t>研磨石</t>
-  </si>
-  <si>
-    <t>RMA70-24</t>
-  </si>
-  <si>
-    <t>RMA70-12</t>
-  </si>
-  <si>
-    <t>提纯源岩</t>
-  </si>
-  <si>
-    <t>固源岩组</t>
-  </si>
-  <si>
-    <t>固源岩</t>
-  </si>
-  <si>
-    <t>源岩</t>
-  </si>
-  <si>
-    <t>改量装置</t>
-  </si>
-  <si>
-    <t>全新装置</t>
-  </si>
-  <si>
-    <t>装置</t>
-  </si>
-  <si>
-    <t>破损装置</t>
-  </si>
-  <si>
-    <t>聚酸酯块</t>
-  </si>
-  <si>
-    <t>聚酸酯组</t>
-  </si>
-  <si>
-    <t>聚酸酯</t>
-  </si>
-  <si>
-    <t>酯原料</t>
-  </si>
-  <si>
-    <t>糖聚块</t>
-  </si>
-  <si>
-    <t>糖组</t>
-  </si>
-  <si>
-    <t>糖</t>
-  </si>
-  <si>
-    <t>代糖</t>
-  </si>
-  <si>
-    <t>异铁块</t>
-  </si>
-  <si>
-    <t>异铁组</t>
-  </si>
-  <si>
-    <t>异铁</t>
-  </si>
-  <si>
-    <t>异铁碎片</t>
-  </si>
-  <si>
-    <t>酮阵列</t>
-  </si>
-  <si>
-    <t>酮凝集组</t>
-  </si>
-  <si>
-    <t>酮凝集</t>
-  </si>
-  <si>
-    <t>双酮</t>
-  </si>
-  <si>
     <t>D32钢</t>
   </si>
   <si>
@@ -145,30 +385,6 @@
     <t>聚合剂</t>
   </si>
   <si>
-    <t>碳素组</t>
-  </si>
-  <si>
-    <t>碳素</t>
-  </si>
-  <si>
-    <t>碳</t>
-  </si>
-  <si>
-    <t>技巧概要·卷3</t>
-  </si>
-  <si>
-    <t>技巧概要·卷2</t>
-  </si>
-  <si>
-    <t>技巧概要·卷1</t>
-  </si>
-  <si>
-    <t>赤金</t>
-  </si>
-  <si>
-    <t>家具</t>
-  </si>
-  <si>
     <t>基础加固建材</t>
   </si>
   <si>
@@ -176,222 +392,6 @@
   </si>
   <si>
     <t>高级加固建材</t>
-  </si>
-  <si>
-    <t>1-12</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>1-8</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>4-10</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>CA-1</t>
-  </si>
-  <si>
-    <t>CA-2</t>
-  </si>
-  <si>
-    <t>CA-3</t>
-  </si>
-  <si>
-    <t>CA-4</t>
-  </si>
-  <si>
-    <t>CA-5</t>
-  </si>
-  <si>
-    <t>CE-1</t>
-  </si>
-  <si>
-    <t>CE-2</t>
-  </si>
-  <si>
-    <t>CE-3</t>
-  </si>
-  <si>
-    <t>CE-4</t>
-  </si>
-  <si>
-    <t>CE-5</t>
-  </si>
-  <si>
-    <t>LS-1</t>
-  </si>
-  <si>
-    <t>LS-2</t>
-  </si>
-  <si>
-    <t>LS-3</t>
-  </si>
-  <si>
-    <t>LS-4</t>
-  </si>
-  <si>
-    <t>LS-5</t>
-  </si>
-  <si>
-    <t>S2-1</t>
-  </si>
-  <si>
-    <t>S2-12</t>
-  </si>
-  <si>
-    <t>S2-4</t>
-  </si>
-  <si>
-    <t>S2-5</t>
-  </si>
-  <si>
-    <t>S2-6</t>
-  </si>
-  <si>
-    <t>S2-7</t>
-  </si>
-  <si>
-    <t>S2-8</t>
-  </si>
-  <si>
-    <t>S2-9</t>
-  </si>
-  <si>
-    <t>S3-1</t>
-  </si>
-  <si>
-    <t>S3-2</t>
-  </si>
-  <si>
-    <t>S3-3</t>
-  </si>
-  <si>
-    <t>S3-4</t>
-  </si>
-  <si>
-    <t>S4-1</t>
-  </si>
-  <si>
-    <t>S4-2</t>
-  </si>
-  <si>
-    <t>S4-3</t>
-  </si>
-  <si>
-    <t>S4-4</t>
-  </si>
-  <si>
-    <t>S4-5</t>
-  </si>
-  <si>
-    <t>S4-6</t>
-  </si>
-  <si>
-    <t>S4-7</t>
-  </si>
-  <si>
-    <t>S4-8</t>
-  </si>
-  <si>
-    <t>S4-9</t>
-  </si>
-  <si>
-    <t>SK-1</t>
-  </si>
-  <si>
-    <t>SK-2</t>
-  </si>
-  <si>
-    <t>SK-3</t>
-  </si>
-  <si>
-    <t>SK-4</t>
-  </si>
-  <si>
-    <t>SK-5</t>
   </si>
   <si>
     <t>part</t>
@@ -767,13 +767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA73"/>
+  <dimension ref="A1:AT73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,31 +912,10 @@
       <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:46">
+      <c r="A2" t="s">
         <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53">
-      <c r="A2" t="s">
-        <v>53</v>
       </c>
       <c r="B2">
         <v>-9</v>
@@ -944,40 +923,40 @@
       <c r="C2">
         <v>108</v>
       </c>
-      <c r="G2">
-        <v>1.174603174603175</v>
+      <c r="I2">
+        <v>0.05490196078431372</v>
+      </c>
+      <c r="L2">
+        <v>0.05098039215686274</v>
+      </c>
+      <c r="O2">
+        <v>1.146551724137931</v>
+      </c>
+      <c r="P2">
+        <v>0.02352941176470588</v>
       </c>
       <c r="S2">
-        <v>0.1415094339622641</v>
-      </c>
-      <c r="V2">
-        <v>0.5424528301886793</v>
-      </c>
-      <c r="W2">
-        <v>0.05188679245283019</v>
+        <v>0.04313725490196078</v>
       </c>
       <c r="AA2">
-        <v>0.0660377358490566</v>
-      </c>
-      <c r="AE2">
-        <v>0.05660377358490566</v>
-      </c>
-      <c r="AI2">
-        <v>0.04716981132075472</v>
-      </c>
-      <c r="AM2">
-        <v>0.0660377358490566</v>
-      </c>
-      <c r="AW2">
-        <v>0.06349206349206349</v>
-      </c>
-      <c r="AX2">
-        <v>0.02358490566037736</v>
-      </c>
-    </row>
-    <row r="3" spans="1:53">
+        <v>0.1254901960784314</v>
+      </c>
+      <c r="AD2">
+        <v>0.0392156862745098</v>
+      </c>
+      <c r="AN2">
+        <v>0.5372549019607843</v>
+      </c>
+      <c r="AO2">
+        <v>0.08620689655172414</v>
+      </c>
+      <c r="AT2">
+        <v>0.06274509803921569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>-6</v>
@@ -985,28 +964,28 @@
       <c r="C3">
         <v>72</v>
       </c>
-      <c r="G3">
-        <v>0.8245614035087719</v>
-      </c>
-      <c r="W3">
-        <v>0.01724137931034483</v>
-      </c>
-      <c r="AI3">
-        <v>0.6724137931034483</v>
-      </c>
-      <c r="AM3">
-        <v>0.03448275862068965</v>
-      </c>
-      <c r="AW3">
-        <v>0.1228070175438596</v>
-      </c>
-      <c r="AX3">
-        <v>0.01724137931034483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:53">
+      <c r="L3">
+        <v>0.01923076923076923</v>
+      </c>
+      <c r="O3">
+        <v>0.9803921568627451</v>
+      </c>
+      <c r="P3">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="S3">
+        <v>0.7884615384615384</v>
+      </c>
+      <c r="AD3">
+        <v>0.01923076923076923</v>
+      </c>
+      <c r="AO3">
+        <v>0.1372549019607843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>-6</v>
@@ -1014,25 +993,25 @@
       <c r="C4">
         <v>72</v>
       </c>
-      <c r="G4">
+      <c r="O4">
         <v>1.027027027027027</v>
       </c>
-      <c r="S4">
+      <c r="AA4">
         <v>0.02702702702702703</v>
       </c>
-      <c r="W4">
+      <c r="AD4">
         <v>0.7297297297297297</v>
       </c>
-      <c r="AA4">
+      <c r="AO4">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="AT4">
         <v>0.05405405405405406</v>
       </c>
-      <c r="AW4">
-        <v>0.1081081081081081</v>
-      </c>
-    </row>
-    <row r="5" spans="1:53">
+    </row>
+    <row r="5" spans="1:46">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>-6</v>
@@ -1040,40 +1019,40 @@
       <c r="C5">
         <v>72</v>
       </c>
-      <c r="G5">
-        <v>1.157317073170732</v>
-      </c>
-      <c r="R5">
-        <v>1.228129032258064</v>
+      <c r="I5">
+        <v>0.07315998237108859</v>
+      </c>
+      <c r="L5">
+        <v>0.05332745702952843</v>
+      </c>
+      <c r="M5">
+        <v>1.252534156015866</v>
+      </c>
+      <c r="O5">
+        <v>1.193719929095974</v>
+      </c>
+      <c r="P5">
+        <v>0.02291758483913618</v>
       </c>
       <c r="S5">
-        <v>0.1349677419354839</v>
-      </c>
-      <c r="W5">
-        <v>0.03561290322580645</v>
+        <v>0.04781842221242838</v>
       </c>
       <c r="AA5">
-        <v>0.06529032258064515</v>
-      </c>
-      <c r="AE5">
-        <v>0.0727741935483871</v>
-      </c>
-      <c r="AI5">
-        <v>0.04438709677419355</v>
-      </c>
-      <c r="AM5">
-        <v>0.05135483870967742</v>
-      </c>
-      <c r="AW5">
-        <v>0.09603658536585366</v>
-      </c>
-      <c r="AX5">
-        <v>0.02296774193548387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:53">
+        <v>0.1377258704275011</v>
+      </c>
+      <c r="AD5">
+        <v>0.03900396650506831</v>
+      </c>
+      <c r="AO5">
+        <v>0.09825272220815397</v>
+      </c>
+      <c r="AT5">
+        <v>0.06588805641251652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B6">
         <v>-9</v>
@@ -1081,40 +1060,40 @@
       <c r="C6">
         <v>108</v>
       </c>
-      <c r="G6">
-        <v>1.170588235294118</v>
+      <c r="I6">
+        <v>0.05405405405405406</v>
+      </c>
+      <c r="L6">
+        <v>0.06306306306306306</v>
+      </c>
+      <c r="O6">
+        <v>1.169312169312169</v>
+      </c>
+      <c r="P6">
+        <v>0.01801801801801802</v>
       </c>
       <c r="S6">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="W6">
-        <v>0.04926108374384237</v>
-      </c>
-      <c r="Z6">
-        <v>0.8768472906403941</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="AA6">
-        <v>0.08866995073891626</v>
-      </c>
-      <c r="AE6">
-        <v>0.04433497536945813</v>
-      </c>
-      <c r="AI6">
-        <v>0.04926108374384237</v>
-      </c>
-      <c r="AM6">
-        <v>0.06403940886699508</v>
-      </c>
-      <c r="AW6">
-        <v>0.1470588235294118</v>
-      </c>
-      <c r="AX6">
-        <v>0.01970443349753695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:53">
+        <v>0.1396396396396396</v>
+      </c>
+      <c r="AD6">
+        <v>0.04954954954954955</v>
+      </c>
+      <c r="AK6">
+        <v>0.8693693693693694</v>
+      </c>
+      <c r="AO6">
+        <v>0.1375661375661376</v>
+      </c>
+      <c r="AT6">
+        <v>0.0945945945945946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B7">
         <v>-9</v>
@@ -1122,40 +1101,40 @@
       <c r="C7">
         <v>108</v>
       </c>
-      <c r="G7">
-        <v>1.183673469387755</v>
+      <c r="I7">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="L7">
+        <v>0.03205128205128205</v>
+      </c>
+      <c r="O7">
+        <v>1.191780821917808</v>
+      </c>
+      <c r="P7">
+        <v>0.01923076923076923</v>
+      </c>
+      <c r="Q7">
+        <v>0.6346153846153846</v>
       </c>
       <c r="S7">
-        <v>0.1940298507462687</v>
-      </c>
-      <c r="W7">
-        <v>0.02238805970149254</v>
+        <v>0.03205128205128205</v>
       </c>
       <c r="AA7">
-        <v>0.04477611940298507</v>
-      </c>
-      <c r="AE7">
-        <v>0.09701492537313433</v>
-      </c>
-      <c r="AH7">
-        <v>0.6567164179104478</v>
-      </c>
-      <c r="AI7">
-        <v>0.03731343283582089</v>
-      </c>
-      <c r="AM7">
-        <v>0.02238805970149254</v>
-      </c>
-      <c r="AW7">
-        <v>0.04081632653061224</v>
-      </c>
-      <c r="AX7">
-        <v>0.01492537313432836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:53">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="AD7">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="AO7">
+        <v>0.0547945205479452</v>
+      </c>
+      <c r="AT7">
+        <v>0.05128205128205128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B8">
         <v>-15</v>
@@ -1163,40 +1142,40 @@
       <c r="C8">
         <v>180</v>
       </c>
-      <c r="F8">
-        <v>0.1381132075471698</v>
-      </c>
-      <c r="G8">
-        <v>0.1090566037735849</v>
+      <c r="D8">
+        <v>0.2869969040247678</v>
+      </c>
+      <c r="I8">
+        <v>0.1594427244582043</v>
+      </c>
+      <c r="K8">
+        <v>0.1385423506237689</v>
+      </c>
+      <c r="L8">
+        <v>0.1256965944272446</v>
       </c>
       <c r="O8">
-        <v>0.2852609308885755</v>
-      </c>
-      <c r="AD8">
-        <v>0.1279971791255289</v>
-      </c>
-      <c r="AE8">
-        <v>0.1593794076163611</v>
+        <v>0.1057124097176625</v>
+      </c>
+      <c r="P8">
+        <v>0.02724458204334365</v>
+      </c>
+      <c r="Q8">
+        <v>0.1102167182662539</v>
+      </c>
+      <c r="S8">
+        <v>0.1130030959752322</v>
       </c>
       <c r="AH8">
-        <v>0.1107193229901269</v>
-      </c>
-      <c r="AI8">
-        <v>0.1138928067700987</v>
-      </c>
-      <c r="AL8">
-        <v>0.09837799717912553</v>
-      </c>
-      <c r="AM8">
-        <v>0.1265867418899859</v>
-      </c>
-      <c r="AX8">
-        <v>0.02750352609308886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:53">
+        <v>0.1269349845201238</v>
+      </c>
+      <c r="AQ8">
+        <v>0.09845201238390093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B9">
         <v>-9</v>
@@ -1204,40 +1183,40 @@
       <c r="C9">
         <v>108</v>
       </c>
-      <c r="G9">
-        <v>1.16</v>
+      <c r="I9">
+        <v>0.05</v>
+      </c>
+      <c r="L9">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="O9">
+        <v>1.197802197802198</v>
+      </c>
+      <c r="P9">
+        <v>0.03333333333333333</v>
       </c>
       <c r="S9">
-        <v>0.1346153846153846</v>
-      </c>
-      <c r="W9">
-        <v>0.0576923076923077</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="AA9">
-        <v>0.07692307692307693</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="AD9">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="AE9">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="AI9">
-        <v>0.009615384615384616</v>
-      </c>
-      <c r="AM9">
-        <v>0.009615384615384616</v>
-      </c>
-      <c r="AW9">
-        <v>0.16</v>
-      </c>
-      <c r="AX9">
-        <v>0.03846153846153846</v>
-      </c>
-    </row>
-    <row r="10" spans="1:53">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="AH9">
+        <v>0.85</v>
+      </c>
+      <c r="AO9">
+        <v>0.1208791208791209</v>
+      </c>
+      <c r="AT9">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>-12</v>
@@ -1245,28 +1224,28 @@
       <c r="C10">
         <v>144</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>0.08620689655172414</v>
-      </c>
-      <c r="S10">
-        <v>0.3793103448275862</v>
-      </c>
-      <c r="W10">
-        <v>1.5</v>
+      <c r="M10">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="O10">
+        <v>0.98</v>
       </c>
       <c r="AA10">
-        <v>0.2241379310344828</v>
-      </c>
-      <c r="AW10">
-        <v>0.1162790697674419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
+        <v>0.3692307692307693</v>
+      </c>
+      <c r="AD10">
+        <v>1.476923076923077</v>
+      </c>
+      <c r="AO10">
+        <v>0.16</v>
+      </c>
+      <c r="AT10">
+        <v>0.2153846153846154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B11">
         <v>-12</v>
@@ -1274,40 +1253,40 @@
       <c r="C11">
         <v>144</v>
       </c>
-      <c r="G11">
-        <v>1.123863636363636</v>
-      </c>
-      <c r="Q11">
-        <v>0.4305856832971801</v>
-      </c>
-      <c r="R11">
-        <v>0.03253796095444685</v>
-      </c>
-      <c r="S11">
-        <v>0.3676789587852495</v>
-      </c>
-      <c r="V11">
-        <v>0.01193058568329718</v>
-      </c>
-      <c r="W11">
-        <v>0.1550976138828633</v>
-      </c>
-      <c r="Z11">
-        <v>0.01952277657266811</v>
+      <c r="M11">
+        <v>0.02705223880597015</v>
+      </c>
+      <c r="N11">
+        <v>0.4216417910447761</v>
+      </c>
+      <c r="O11">
+        <v>1.171844660194175</v>
+      </c>
+      <c r="P11">
+        <v>0.03078358208955224</v>
       </c>
       <c r="AA11">
-        <v>0.2852494577006507</v>
-      </c>
-      <c r="AW11">
-        <v>0.08181818181818182</v>
-      </c>
-      <c r="AX11">
-        <v>0.0314533622559653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
+        <v>0.3805970149253731</v>
+      </c>
+      <c r="AD11">
+        <v>0.1548507462686567</v>
+      </c>
+      <c r="AK11">
+        <v>0.0167910447761194</v>
+      </c>
+      <c r="AN11">
+        <v>0.01305970149253731</v>
+      </c>
+      <c r="AO11">
+        <v>0.08640776699029126</v>
+      </c>
+      <c r="AT11">
+        <v>0.3013059701492538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B12">
         <v>-12</v>
@@ -1315,40 +1294,40 @@
       <c r="C12">
         <v>144</v>
       </c>
-      <c r="F12">
-        <v>0.06222222222222222</v>
-      </c>
-      <c r="G12">
-        <v>1.328888888888889</v>
-      </c>
-      <c r="AC12">
-        <v>0.35</v>
-      </c>
-      <c r="AD12">
-        <v>0.025</v>
-      </c>
-      <c r="AE12">
-        <v>0.2541666666666667</v>
+      <c r="I12">
+        <v>0.2737642585551331</v>
+      </c>
+      <c r="K12">
+        <v>0.06262230919765166</v>
+      </c>
+      <c r="L12">
+        <v>0.2034220532319392</v>
+      </c>
+      <c r="O12">
+        <v>1.346379647749511</v>
+      </c>
+      <c r="P12">
+        <v>0.02661596958174905</v>
+      </c>
+      <c r="Q12">
+        <v>0.007604562737642586</v>
+      </c>
+      <c r="S12">
+        <v>0.2015209125475285</v>
       </c>
       <c r="AH12">
-        <v>0.004166666666666667</v>
+        <v>0.03231939163498099</v>
       </c>
       <c r="AI12">
-        <v>0.2083333333333333</v>
-      </c>
-      <c r="AL12">
-        <v>0.02083333333333333</v>
-      </c>
-      <c r="AM12">
-        <v>0.225</v>
-      </c>
-      <c r="AX12">
-        <v>0.025</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
+        <v>0.3688212927756654</v>
+      </c>
+      <c r="AQ12">
+        <v>0.01711026615969582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B13">
         <v>-12</v>
@@ -1356,40 +1335,40 @@
       <c r="C13">
         <v>144</v>
       </c>
-      <c r="G13">
-        <v>1.16875</v>
-      </c>
-      <c r="R13">
-        <v>0.02252906976744186</v>
-      </c>
-      <c r="S13">
-        <v>0.4324127906976744</v>
-      </c>
-      <c r="V13">
-        <v>0.01598837209302326</v>
-      </c>
-      <c r="W13">
-        <v>0.1438953488372093</v>
-      </c>
-      <c r="Y13">
-        <v>0.3611918604651163</v>
-      </c>
-      <c r="Z13">
-        <v>0.02616279069767442</v>
+      <c r="M13">
+        <v>0.02300109529025192</v>
+      </c>
+      <c r="O13">
+        <v>1.159537572254335</v>
+      </c>
+      <c r="P13">
+        <v>0.02135815991237678</v>
       </c>
       <c r="AA13">
-        <v>0.2565406976744186</v>
-      </c>
-      <c r="AW13">
-        <v>0.09765625</v>
-      </c>
-      <c r="AX13">
-        <v>0.0188953488372093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
+        <v>0.4348302300109529</v>
+      </c>
+      <c r="AD13">
+        <v>0.1418400876232201</v>
+      </c>
+      <c r="AK13">
+        <v>0.02683461117196057</v>
+      </c>
+      <c r="AM13">
+        <v>0.3532311062431545</v>
+      </c>
+      <c r="AN13">
+        <v>0.01423877327491785</v>
+      </c>
+      <c r="AO13">
+        <v>0.1023121387283237</v>
+      </c>
+      <c r="AT13">
+        <v>0.2519167579408543</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B14">
         <v>-12</v>
@@ -1397,28 +1376,28 @@
       <c r="C14">
         <v>1500</v>
       </c>
-      <c r="G14">
+      <c r="I14">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="L14">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="O14">
         <v>1.19047619047619</v>
       </c>
-      <c r="AE14">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="AH14">
+      <c r="P14">
         <v>0.04545454545454546</v>
       </c>
-      <c r="AI14">
+      <c r="Q14">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="S14">
         <v>0.1818181818181818</v>
       </c>
-      <c r="AM14">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="AX14">
-        <v>0.04545454545454546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
+    </row>
+    <row r="15" spans="1:46">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B15">
         <v>-12</v>
@@ -1426,40 +1405,40 @@
       <c r="C15">
         <v>144</v>
       </c>
-      <c r="F15">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="G15">
-        <v>1.292857142857143</v>
-      </c>
-      <c r="AD15">
-        <v>0.01123595505617977</v>
-      </c>
-      <c r="AE15">
-        <v>0.2359550561797753</v>
-      </c>
-      <c r="AG15">
-        <v>0.2303370786516854</v>
+      <c r="I15">
+        <v>0.2388059701492537</v>
+      </c>
+      <c r="K15">
+        <v>0.03680981595092025</v>
+      </c>
+      <c r="L15">
+        <v>0.1990049751243781</v>
+      </c>
+      <c r="O15">
+        <v>1.282208588957055</v>
+      </c>
+      <c r="P15">
+        <v>0.02487562189054726</v>
+      </c>
+      <c r="Q15">
+        <v>0.02487562189054726</v>
+      </c>
+      <c r="S15">
+        <v>0.2587064676616915</v>
+      </c>
+      <c r="T15">
+        <v>0.2238805970149254</v>
       </c>
       <c r="AH15">
-        <v>0.01685393258426966</v>
-      </c>
-      <c r="AI15">
-        <v>0.2640449438202247</v>
-      </c>
-      <c r="AL15">
-        <v>0.01685393258426966</v>
-      </c>
-      <c r="AM15">
-        <v>0.1910112359550562</v>
-      </c>
-      <c r="AX15">
-        <v>0.02808988764044944</v>
-      </c>
-    </row>
-    <row r="16" spans="1:53">
+        <v>0.009950248756218905</v>
+      </c>
+      <c r="AQ15">
+        <v>0.01492537313432836</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>-15</v>
@@ -1467,40 +1446,40 @@
       <c r="C16">
         <v>180</v>
       </c>
-      <c r="G16">
-        <v>1.241379310344828</v>
-      </c>
-      <c r="I16">
-        <v>0.25</v>
-      </c>
-      <c r="R16">
-        <v>0.06521739130434782</v>
-      </c>
-      <c r="S16">
-        <v>0.4891304347826087</v>
-      </c>
-      <c r="V16">
-        <v>0.03260869565217391</v>
-      </c>
-      <c r="W16">
-        <v>0.09782608695652174</v>
-      </c>
-      <c r="Z16">
-        <v>0.0108695652173913</v>
+      <c r="M16">
+        <v>0.0625</v>
+      </c>
+      <c r="O16">
+        <v>1.181818181818182</v>
+      </c>
+      <c r="P16">
+        <v>0.02083333333333333</v>
+      </c>
+      <c r="U16">
+        <v>0.2395833333333333</v>
       </c>
       <c r="AA16">
-        <v>0.1956521739130435</v>
-      </c>
-      <c r="AW16">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="AX16">
-        <v>0.02173913043478261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50">
+        <v>0.4791666666666667</v>
+      </c>
+      <c r="AD16">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="AK16">
+        <v>0.01041666666666667</v>
+      </c>
+      <c r="AN16">
+        <v>0.03125</v>
+      </c>
+      <c r="AO16">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="AT16">
+        <v>0.1979166666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B17">
         <v>-15</v>
@@ -1508,40 +1487,40 @@
       <c r="C17">
         <v>180</v>
       </c>
-      <c r="F17">
-        <v>0.1354466858789625</v>
-      </c>
-      <c r="G17">
-        <v>0.08357348703170028</v>
-      </c>
-      <c r="AD17">
-        <v>0.1452784503631961</v>
-      </c>
-      <c r="AE17">
-        <v>0.1452784503631961</v>
+      <c r="I17">
+        <v>0.1497504159733777</v>
+      </c>
+      <c r="K17">
+        <v>0.1570093457943925</v>
+      </c>
+      <c r="L17">
+        <v>0.1181364392678869</v>
+      </c>
+      <c r="O17">
+        <v>0.08037383177570094</v>
+      </c>
+      <c r="P17">
+        <v>0.03660565723793677</v>
+      </c>
+      <c r="Q17">
+        <v>0.1031613976705491</v>
+      </c>
+      <c r="S17">
+        <v>0.1164725457570715</v>
       </c>
       <c r="AH17">
-        <v>0.1041162227602906</v>
-      </c>
-      <c r="AI17">
-        <v>0.1162227602905569</v>
-      </c>
-      <c r="AK17">
-        <v>0.3753026634382566</v>
-      </c>
-      <c r="AL17">
-        <v>0.1186440677966102</v>
-      </c>
-      <c r="AM17">
-        <v>0.1307506053268765</v>
-      </c>
-      <c r="AX17">
-        <v>0.04116222760290557</v>
-      </c>
-    </row>
-    <row r="18" spans="1:50">
+        <v>0.1347753743760399</v>
+      </c>
+      <c r="AQ17">
+        <v>0.1181364392678869</v>
+      </c>
+      <c r="AR17">
+        <v>0.3743760399334443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B18">
         <v>-15</v>
@@ -1549,37 +1528,37 @@
       <c r="C18">
         <v>180</v>
       </c>
-      <c r="K18">
-        <v>0.371004942339374</v>
-      </c>
-      <c r="R18">
-        <v>0.2013179571663921</v>
-      </c>
-      <c r="S18">
-        <v>0.2095551894563427</v>
-      </c>
-      <c r="V18">
-        <v>0.08665568369028007</v>
-      </c>
-      <c r="W18">
-        <v>0.08665568369028007</v>
-      </c>
-      <c r="Z18">
-        <v>0.1416803953871499</v>
+      <c r="M18">
+        <v>0.2052249637155298</v>
+      </c>
+      <c r="P18">
+        <v>0.02815674891146589</v>
       </c>
       <c r="AA18">
-        <v>0.1380560131795717</v>
-      </c>
-      <c r="AW18">
-        <v>0.1184165232358003</v>
-      </c>
-      <c r="AX18">
-        <v>0.02701812191103789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:50">
+        <v>0.2060957910014514</v>
+      </c>
+      <c r="AD18">
+        <v>0.08505079825834543</v>
+      </c>
+      <c r="AK18">
+        <v>0.139622641509434</v>
+      </c>
+      <c r="AN18">
+        <v>0.08563134978229318</v>
+      </c>
+      <c r="AO18">
+        <v>0.1206636500754148</v>
+      </c>
+      <c r="AP18">
+        <v>0.3727140783744557</v>
+      </c>
+      <c r="AT18">
+        <v>0.1439767779390421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <v>-15</v>
@@ -1588,36 +1567,36 @@
         <v>180</v>
       </c>
       <c r="M19">
-        <v>0.2931726907630522</v>
-      </c>
-      <c r="R19">
-        <v>0.2208835341365462</v>
-      </c>
-      <c r="S19">
-        <v>0.1887550200803213</v>
-      </c>
-      <c r="V19">
-        <v>0.03614457831325301</v>
-      </c>
-      <c r="W19">
-        <v>0.08433734939759036</v>
-      </c>
-      <c r="Z19">
-        <v>0.1405622489959839</v>
+        <v>0.2339622641509434</v>
+      </c>
+      <c r="P19">
+        <v>0.01509433962264151</v>
       </c>
       <c r="AA19">
-        <v>0.1124497991967871</v>
-      </c>
-      <c r="AW19">
-        <v>0.1023255813953488</v>
-      </c>
-      <c r="AX19">
-        <v>0.008032128514056224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50">
+        <v>0.2113207547169811</v>
+      </c>
+      <c r="AC19">
+        <v>0.3018867924528302</v>
+      </c>
+      <c r="AD19">
+        <v>0.08679245283018867</v>
+      </c>
+      <c r="AK19">
+        <v>0.1622641509433962</v>
+      </c>
+      <c r="AN19">
+        <v>0.04528301886792453</v>
+      </c>
+      <c r="AO19">
+        <v>0.1134453781512605</v>
+      </c>
+      <c r="AT19">
+        <v>0.1245283018867925</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B20">
         <v>-15</v>
@@ -1625,37 +1604,37 @@
       <c r="C20">
         <v>180</v>
       </c>
-      <c r="R20">
-        <v>0.1990647962591851</v>
-      </c>
-      <c r="S20">
-        <v>0.2311289245156981</v>
-      </c>
-      <c r="U20">
-        <v>0.2772211088844355</v>
-      </c>
-      <c r="V20">
-        <v>0.07882431529726119</v>
-      </c>
-      <c r="W20">
-        <v>0.09418837675350701</v>
-      </c>
-      <c r="Z20">
-        <v>0.1356045424181697</v>
+      <c r="J20">
+        <v>0.2777464788732394</v>
+      </c>
+      <c r="M20">
+        <v>0.1983098591549296</v>
+      </c>
+      <c r="P20">
+        <v>0.02197183098591549</v>
       </c>
       <c r="AA20">
-        <v>0.1342685370741483</v>
-      </c>
-      <c r="AW20">
-        <v>0.1090014064697609</v>
-      </c>
-      <c r="AX20">
-        <v>0.02204408817635271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:50">
+        <v>0.2276056338028169</v>
+      </c>
+      <c r="AD20">
+        <v>0.09352112676056339</v>
+      </c>
+      <c r="AK20">
+        <v>0.1425352112676056</v>
+      </c>
+      <c r="AN20">
+        <v>0.08056338028169015</v>
+      </c>
+      <c r="AO20">
+        <v>0.1064079952968842</v>
+      </c>
+      <c r="AT20">
+        <v>0.131830985915493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B21">
         <v>-15</v>
@@ -1663,37 +1642,37 @@
       <c r="C21">
         <v>180</v>
       </c>
-      <c r="F21">
-        <v>0.1397058823529412</v>
-      </c>
-      <c r="G21">
-        <v>0.05147058823529412</v>
-      </c>
-      <c r="AD21">
-        <v>0.1255411255411255</v>
-      </c>
-      <c r="AE21">
-        <v>0.1645021645021645</v>
+      <c r="I21">
+        <v>0.1591836734693877</v>
+      </c>
+      <c r="K21">
+        <v>0.1466666666666667</v>
+      </c>
+      <c r="L21">
+        <v>0.1551020408163265</v>
+      </c>
+      <c r="O21">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="P21">
+        <v>0.03673469387755102</v>
+      </c>
+      <c r="Q21">
+        <v>0.1020408163265306</v>
+      </c>
+      <c r="S21">
+        <v>0.1183673469387755</v>
       </c>
       <c r="AH21">
-        <v>0.1082251082251082</v>
-      </c>
-      <c r="AI21">
-        <v>0.1082251082251082</v>
-      </c>
-      <c r="AL21">
-        <v>1.238095238095238</v>
-      </c>
-      <c r="AM21">
-        <v>0.1601731601731602</v>
-      </c>
-      <c r="AX21">
-        <v>0.04329004329004329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:50">
+        <v>0.1183673469387755</v>
+      </c>
+      <c r="AQ21">
+        <v>1.228571428571429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>-18</v>
@@ -1701,40 +1680,40 @@
       <c r="C22">
         <v>216</v>
       </c>
-      <c r="M22">
-        <v>0.01248266296809986</v>
-      </c>
-      <c r="O22">
-        <v>0.01040221914008322</v>
-      </c>
-      <c r="X22">
-        <v>0.03051317614424411</v>
-      </c>
-      <c r="Y22">
-        <v>0.3807212205270458</v>
-      </c>
-      <c r="Z22">
-        <v>0.09986130374479889</v>
-      </c>
-      <c r="AA22">
-        <v>0.4036061026352288</v>
+      <c r="D22">
+        <v>0.01095556908094948</v>
+      </c>
+      <c r="L22">
+        <v>0.3244065733414486</v>
+      </c>
+      <c r="P22">
+        <v>0.02251978088861838</v>
+      </c>
+      <c r="AC22">
+        <v>0.01217285453438831</v>
       </c>
       <c r="AK22">
-        <v>0.01178918169209431</v>
+        <v>0.09616555082166768</v>
       </c>
       <c r="AL22">
-        <v>0.08391123439667129</v>
+        <v>0.03164942178940962</v>
       </c>
       <c r="AM22">
-        <v>0.3370319001386963</v>
-      </c>
-      <c r="AX22">
-        <v>0.02011095700416089</v>
-      </c>
-    </row>
-    <row r="23" spans="1:50">
+        <v>0.3834449178332319</v>
+      </c>
+      <c r="AQ22">
+        <v>0.09129640900791236</v>
+      </c>
+      <c r="AR22">
+        <v>0.0115642118076689</v>
+      </c>
+      <c r="AT22">
+        <v>0.4035301278149726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B23">
         <v>-1800000</v>
@@ -1742,37 +1721,37 @@
       <c r="C23">
         <v>2700</v>
       </c>
-      <c r="I23">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="Q23">
-        <v>0.09230769230769231</v>
-      </c>
-      <c r="R23">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="S23">
-        <v>0.3076923076923077</v>
+      <c r="J23">
+        <v>0.02857142857142857</v>
+      </c>
+      <c r="M23">
+        <v>0.2285714285714286</v>
+      </c>
+      <c r="N23">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="P23">
+        <v>0.08571428571428572</v>
       </c>
       <c r="U23">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="V23">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="W23">
-        <v>0.1076923076923077</v>
-      </c>
-      <c r="AW23">
-        <v>0.3125</v>
-      </c>
-      <c r="AX23">
-        <v>0.09230769230769231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:50">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="AA23">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AD23">
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="AN23">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="AO23">
+        <v>0.2452830188679245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B24">
         <v>-21</v>
@@ -1780,40 +1759,40 @@
       <c r="C24">
         <v>252</v>
       </c>
-      <c r="I24">
-        <v>0.0458756065284517</v>
-      </c>
-      <c r="Q24">
-        <v>0.04852227613586237</v>
-      </c>
-      <c r="R24">
-        <v>0.3259814733127481</v>
-      </c>
-      <c r="S24">
-        <v>0.2161446846052051</v>
-      </c>
-      <c r="T24">
-        <v>0.03043670048522276</v>
+      <c r="J24">
+        <v>0.300462249614792</v>
+      </c>
+      <c r="M24">
+        <v>0.3193374422187982</v>
+      </c>
+      <c r="N24">
+        <v>0.05046224961479199</v>
+      </c>
+      <c r="P24">
+        <v>0.02927580893682588</v>
       </c>
       <c r="U24">
-        <v>0.301720335244817</v>
-      </c>
-      <c r="V24">
-        <v>0.1318923687692986</v>
-      </c>
-      <c r="W24">
-        <v>0.07543008381120424</v>
-      </c>
-      <c r="AW24">
-        <v>0.1034131431482425</v>
-      </c>
-      <c r="AX24">
-        <v>0.0282311424790472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:50">
+        <v>0.04275808936825886</v>
+      </c>
+      <c r="Z24">
+        <v>0.0335130970724191</v>
+      </c>
+      <c r="AA24">
+        <v>0.2141756548536209</v>
+      </c>
+      <c r="AD24">
+        <v>0.07473035439137134</v>
+      </c>
+      <c r="AN24">
+        <v>0.1298151001540832</v>
+      </c>
+      <c r="AO24">
+        <v>0.1040940766550523</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>-18</v>
@@ -1821,46 +1800,46 @@
       <c r="C25">
         <v>216</v>
       </c>
-      <c r="E25">
-        <v>0.0846942650968477</v>
-      </c>
-      <c r="F25">
-        <v>0.09608811241929358</v>
-      </c>
       <c r="G25">
-        <v>0.09380934295480441</v>
+        <v>0.08496953283683141</v>
+      </c>
+      <c r="I25">
+        <v>0.1705535262714246</v>
       </c>
       <c r="K25">
-        <v>0.01664098613251156</v>
-      </c>
-      <c r="AB25">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="AC25">
-        <v>0.4012326656394453</v>
-      </c>
-      <c r="AD25">
-        <v>0.2027734976887519</v>
-      </c>
-      <c r="AE25">
-        <v>0.1670261941448382</v>
-      </c>
-      <c r="AG25">
-        <v>0.01879815100154083</v>
+        <v>0.0961408259986459</v>
+      </c>
+      <c r="O25">
+        <v>0.0927555856465809</v>
+      </c>
+      <c r="P25">
+        <v>0.02191626861477943</v>
+      </c>
+      <c r="Q25">
+        <v>0.150042146670413</v>
+      </c>
+      <c r="S25">
+        <v>0.1199775217757797</v>
+      </c>
+      <c r="T25">
+        <v>0.01910649058724361</v>
       </c>
       <c r="AH25">
-        <v>0.1479198767334361</v>
+        <v>0.2034279291935937</v>
       </c>
       <c r="AI25">
-        <v>0.1201848998459168</v>
-      </c>
-      <c r="AX25">
-        <v>0.02157164869029276</v>
-      </c>
-    </row>
-    <row r="26" spans="1:50">
+        <v>0.4051699915706659</v>
+      </c>
+      <c r="AJ25">
+        <v>0.03708906996347289</v>
+      </c>
+      <c r="AP25">
+        <v>0.01770160157347569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>-18</v>
@@ -1868,37 +1847,37 @@
       <c r="C26">
         <v>216</v>
       </c>
-      <c r="E26">
-        <v>1.652173913043478</v>
-      </c>
-      <c r="I26">
-        <v>0.1</v>
-      </c>
-      <c r="Q26">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="R26">
-        <v>0.2</v>
-      </c>
-      <c r="S26">
-        <v>0.1</v>
+      <c r="G26">
+        <v>2.473684210526316</v>
+      </c>
+      <c r="J26">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="M26">
+        <v>0.2307692307692308</v>
+      </c>
+      <c r="N26">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="P26">
+        <v>0.03846153846153846</v>
       </c>
       <c r="U26">
-        <v>0.03333333333333333</v>
-      </c>
-      <c r="V26">
-        <v>0.2333333333333333</v>
-      </c>
-      <c r="W26">
-        <v>0.06666666666666667</v>
-      </c>
-      <c r="AX26">
-        <v>0.03333333333333333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:50">
+        <v>0.03846153846153846</v>
+      </c>
+      <c r="AA26">
+        <v>0.1923076923076923</v>
+      </c>
+      <c r="AD26">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="AN26">
+        <v>0.2307692307692308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B27">
         <v>-18</v>
@@ -1906,40 +1885,40 @@
       <c r="C27">
         <v>216</v>
       </c>
-      <c r="H27">
-        <v>0.05043478260869565</v>
-      </c>
-      <c r="I27">
-        <v>0.3779710144927536</v>
-      </c>
-      <c r="Q27">
-        <v>0.0272463768115942</v>
-      </c>
-      <c r="R27">
-        <v>0.2979710144927536</v>
-      </c>
-      <c r="S27">
-        <v>0.2643478260869565</v>
+      <c r="J27">
+        <v>0.01387347391786903</v>
+      </c>
+      <c r="M27">
+        <v>0.3052164261931188</v>
+      </c>
+      <c r="N27">
+        <v>0.02608213096559378</v>
+      </c>
+      <c r="P27">
+        <v>0.0244173140954495</v>
       </c>
       <c r="U27">
-        <v>0.01449275362318841</v>
-      </c>
-      <c r="V27">
-        <v>0.1182608695652174</v>
-      </c>
-      <c r="W27">
-        <v>0.1066666666666667</v>
-      </c>
-      <c r="AW27">
-        <v>0.08016304347826086</v>
-      </c>
-      <c r="AX27">
-        <v>0.02260869565217391</v>
-      </c>
-    </row>
-    <row r="28" spans="1:50">
+        <v>0.3862375138734739</v>
+      </c>
+      <c r="AA27">
+        <v>0.2669256381798002</v>
+      </c>
+      <c r="AB27">
+        <v>0.05493895671476138</v>
+      </c>
+      <c r="AD27">
+        <v>0.1071032186459489</v>
+      </c>
+      <c r="AN27">
+        <v>0.1193118756936737</v>
+      </c>
+      <c r="AO27">
+        <v>0.08433734939759036</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>-18</v>
@@ -1947,40 +1926,40 @@
       <c r="C28">
         <v>216</v>
       </c>
-      <c r="M28">
-        <v>0.01205673758865248</v>
-      </c>
-      <c r="O28">
-        <v>0.009219858156028368</v>
-      </c>
-      <c r="Y28">
-        <v>0.01560283687943262</v>
-      </c>
-      <c r="Z28">
-        <v>0.1021276595744681</v>
-      </c>
-      <c r="AA28">
-        <v>0.3914893617021277</v>
-      </c>
-      <c r="AJ28">
-        <v>0.0375886524822695</v>
+      <c r="D28">
+        <v>0.008436080467229072</v>
+      </c>
+      <c r="L28">
+        <v>0.3432835820895522</v>
+      </c>
+      <c r="P28">
+        <v>0.02465931213497729</v>
+      </c>
+      <c r="AC28">
+        <v>0.01232965606748864</v>
       </c>
       <c r="AK28">
-        <v>0.3191489361702128</v>
-      </c>
-      <c r="AL28">
-        <v>0.08723404255319149</v>
+        <v>0.1012329656067489</v>
       </c>
       <c r="AM28">
-        <v>0.3460992907801418</v>
-      </c>
-      <c r="AX28">
-        <v>0.02340425531914894</v>
-      </c>
-    </row>
-    <row r="29" spans="1:50">
+        <v>0.01687216093445814</v>
+      </c>
+      <c r="AQ28">
+        <v>0.08955223880597014</v>
+      </c>
+      <c r="AR28">
+        <v>0.3153796236210253</v>
+      </c>
+      <c r="AS28">
+        <v>0.03828682673588579</v>
+      </c>
+      <c r="AT28">
+        <v>0.3932511356262167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B29">
         <v>-18</v>
@@ -1988,40 +1967,40 @@
       <c r="C29">
         <v>216</v>
       </c>
-      <c r="I29">
-        <v>0.02217821782178218</v>
+      <c r="J29">
+        <v>0.01705191360363774</v>
+      </c>
+      <c r="M29">
+        <v>0.3122394846532778</v>
+      </c>
+      <c r="N29">
+        <v>0.4535809018567639</v>
       </c>
       <c r="P29">
-        <v>0.04594059405940594</v>
-      </c>
-      <c r="Q29">
-        <v>0.4554455445544555</v>
-      </c>
-      <c r="R29">
-        <v>0.3104950495049505</v>
-      </c>
-      <c r="S29">
-        <v>0.28</v>
+        <v>0.03107237589996211</v>
       </c>
       <c r="U29">
-        <v>0.01663366336633663</v>
-      </c>
-      <c r="V29">
-        <v>0.1211881188118812</v>
-      </c>
-      <c r="W29">
-        <v>0.1049504950495049</v>
-      </c>
-      <c r="AW29">
-        <v>0.09031838856400259</v>
-      </c>
-      <c r="AX29">
-        <v>0.02930693069306931</v>
-      </c>
-    </row>
-    <row r="30" spans="1:50">
+        <v>0.02122015915119363</v>
+      </c>
+      <c r="Y29">
+        <v>0.0473664266767715</v>
+      </c>
+      <c r="AA29">
+        <v>0.2830617658203865</v>
+      </c>
+      <c r="AD29">
+        <v>0.1053429329291398</v>
+      </c>
+      <c r="AN29">
+        <v>0.1227737779461917</v>
+      </c>
+      <c r="AO29">
+        <v>0.08833922261484099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B30">
         <v>-18</v>
@@ -2029,43 +2008,43 @@
       <c r="C30">
         <v>216</v>
       </c>
-      <c r="I30">
-        <v>0.01842818428184282</v>
+      <c r="F30">
+        <v>0.03865189724251709</v>
       </c>
       <c r="J30">
-        <v>0.03929539295392954</v>
-      </c>
-      <c r="K30">
-        <v>0.2926829268292683</v>
-      </c>
-      <c r="Q30">
-        <v>0.01815718157181572</v>
-      </c>
-      <c r="R30">
-        <v>0.2994579945799458</v>
-      </c>
-      <c r="S30">
-        <v>0.2699186991869919</v>
+        <v>0.01366957341503653</v>
+      </c>
+      <c r="M30">
+        <v>0.3118076832429885</v>
+      </c>
+      <c r="N30">
+        <v>0.01767617251944379</v>
+      </c>
+      <c r="P30">
+        <v>0.02521800612773981</v>
       </c>
       <c r="U30">
-        <v>0.01219512195121951</v>
-      </c>
-      <c r="V30">
-        <v>0.1233062330623306</v>
-      </c>
-      <c r="W30">
-        <v>0.113550135501355</v>
-      </c>
-      <c r="AW30">
-        <v>0.09855502037791775</v>
-      </c>
-      <c r="AX30">
-        <v>0.02601626016260163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:50">
+        <v>0.01791185481970304</v>
+      </c>
+      <c r="AA30">
+        <v>0.2717416921989159</v>
+      </c>
+      <c r="AD30">
+        <v>0.1145415979259958</v>
+      </c>
+      <c r="AN30">
+        <v>0.1230261607353288</v>
+      </c>
+      <c r="AO30">
+        <v>0.0990159901599016</v>
+      </c>
+      <c r="AP30">
+        <v>0.2941315107235447</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B31">
         <v>-21</v>
@@ -2073,40 +2052,40 @@
       <c r="C31">
         <v>252</v>
       </c>
+      <c r="D31">
+        <v>0.0241635687732342</v>
+      </c>
+      <c r="H31">
+        <v>0.03903345724907063</v>
+      </c>
       <c r="L31">
-        <v>0.03574788334901223</v>
-      </c>
-      <c r="M31">
-        <v>0.3273753527751646</v>
-      </c>
-      <c r="O31">
-        <v>0.02257761053621825</v>
-      </c>
-      <c r="Y31">
-        <v>0.04045155221072436</v>
-      </c>
-      <c r="Z31">
-        <v>0.1392285983066792</v>
-      </c>
-      <c r="AA31">
-        <v>0.284101599247413</v>
+        <v>0.2434944237918216</v>
+      </c>
+      <c r="P31">
+        <v>0.03531598513011153</v>
+      </c>
+      <c r="AC31">
+        <v>0.3475836431226766</v>
       </c>
       <c r="AK31">
-        <v>0.02257761053621825</v>
-      </c>
-      <c r="AL31">
-        <v>0.1204139228598307</v>
+        <v>0.1514869888475836</v>
       </c>
       <c r="AM31">
-        <v>0.2173095014111007</v>
-      </c>
-      <c r="AX31">
-        <v>0.03010348071495767</v>
-      </c>
-    </row>
-    <row r="32" spans="1:50">
+        <v>0.04275092936802974</v>
+      </c>
+      <c r="AQ31">
+        <v>0.1328996282527881</v>
+      </c>
+      <c r="AR31">
+        <v>0.02602230483271376</v>
+      </c>
+      <c r="AT31">
+        <v>0.3178438661710037</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B32">
         <v>-21</v>
@@ -2114,40 +2093,40 @@
       <c r="C32">
         <v>252</v>
       </c>
-      <c r="M32">
-        <v>0.02479061976549414</v>
-      </c>
-      <c r="N32">
-        <v>0.04087102177554439</v>
-      </c>
-      <c r="O32">
-        <v>0.2904522613065327</v>
-      </c>
-      <c r="Y32">
-        <v>0.03584589614740368</v>
-      </c>
-      <c r="Z32">
-        <v>0.1484087102177555</v>
-      </c>
-      <c r="AA32">
-        <v>0.31892797319933</v>
+      <c r="D32">
+        <v>0.2974486621032981</v>
+      </c>
+      <c r="E32">
+        <v>0.04044803982576229</v>
+      </c>
+      <c r="L32">
+        <v>0.2507778469197262</v>
+      </c>
+      <c r="P32">
+        <v>0.02364654635967641</v>
+      </c>
+      <c r="AC32">
+        <v>0.02489110143123833</v>
       </c>
       <c r="AK32">
-        <v>0.03082077051926298</v>
-      </c>
-      <c r="AL32">
-        <v>0.1242881072026801</v>
+        <v>0.1555693839452396</v>
       </c>
       <c r="AM32">
-        <v>0.2458961474036851</v>
-      </c>
-      <c r="AX32">
-        <v>0.02345058626465662</v>
-      </c>
-    </row>
-    <row r="33" spans="1:50">
+        <v>0.0357809583074051</v>
+      </c>
+      <c r="AQ32">
+        <v>0.1300560049782203</v>
+      </c>
+      <c r="AR32">
+        <v>0.02955818294959552</v>
+      </c>
+      <c r="AT32">
+        <v>0.327940261356565</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B33">
         <v>-10</v>
@@ -2155,16 +2134,16 @@
       <c r="C33">
         <v>120</v>
       </c>
-      <c r="AV33">
-        <v>2.25</v>
-      </c>
-      <c r="AX33">
+      <c r="P33">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:50">
+      <c r="V33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B34">
         <v>-15</v>
@@ -2172,16 +2151,16 @@
       <c r="C34">
         <v>180</v>
       </c>
-      <c r="AV34">
+      <c r="P34">
+        <v>0.1</v>
+      </c>
+      <c r="V34">
         <v>5</v>
       </c>
-      <c r="AX34">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:50">
+    </row>
+    <row r="35" spans="1:46">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B35">
         <v>-20</v>
@@ -2189,19 +2168,19 @@
       <c r="C35">
         <v>240</v>
       </c>
-      <c r="AU35">
-        <v>2.858267716535433</v>
-      </c>
-      <c r="AV35">
-        <v>1.015748031496063</v>
-      </c>
-      <c r="AX35">
+      <c r="P35">
         <v>0.07086614173228346</v>
       </c>
-    </row>
-    <row r="36" spans="1:50">
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B36">
         <v>-25</v>
@@ -2209,22 +2188,22 @@
       <c r="C36">
         <v>300</v>
       </c>
-      <c r="AT36">
-        <v>1.560975609756098</v>
-      </c>
-      <c r="AU36">
-        <v>0.9512195121951219</v>
-      </c>
-      <c r="AV36">
-        <v>0.9512195121951219</v>
-      </c>
-      <c r="AX36">
+      <c r="P36">
         <v>0.0975609756097561</v>
       </c>
-    </row>
-    <row r="37" spans="1:50">
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>1.658536585365854</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B37">
         <v>-30</v>
@@ -2232,22 +2211,22 @@
       <c r="C37">
         <v>360</v>
       </c>
-      <c r="AT37">
-        <v>1.994623655913978</v>
-      </c>
-      <c r="AU37">
-        <v>1.521505376344086</v>
-      </c>
-      <c r="AV37">
-        <v>1.462365591397849</v>
-      </c>
-      <c r="AX37">
-        <v>0.03763440860215054</v>
-      </c>
-    </row>
-    <row r="38" spans="1:50">
+      <c r="P37">
+        <v>0.03684210526315789</v>
+      </c>
+      <c r="V37">
+        <v>1.5</v>
+      </c>
+      <c r="W37">
+        <v>1.526315789473684</v>
+      </c>
+      <c r="X37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B38">
         <v>-10</v>
@@ -2256,9 +2235,9 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:46">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B39">
         <v>-15</v>
@@ -2267,9 +2246,9 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:46">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B40">
         <v>-20</v>
@@ -2278,9 +2257,9 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:46">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B41">
         <v>-25</v>
@@ -2289,9 +2268,9 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:46">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B42">
         <v>-30</v>
@@ -2300,9 +2279,9 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:46">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B43">
         <v>-10</v>
@@ -2311,9 +2290,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:46">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B44">
         <v>-15</v>
@@ -2322,9 +2301,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:46">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B45">
         <v>-20</v>
@@ -2333,9 +2312,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:50">
+    <row r="46" spans="1:46">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B46">
         <v>-25</v>
@@ -2343,13 +2322,10 @@
       <c r="C46">
         <v>300</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50">
+    </row>
+    <row r="47" spans="1:46">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>-30</v>
@@ -2357,13 +2333,10 @@
       <c r="C47">
         <v>360</v>
       </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:50">
+    </row>
+    <row r="48" spans="1:46">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B48">
         <v>-9</v>
@@ -2371,40 +2344,40 @@
       <c r="C48">
         <v>108</v>
       </c>
-      <c r="G48">
-        <v>1.25</v>
+      <c r="I48">
+        <v>0.06103286384976526</v>
+      </c>
+      <c r="L48">
+        <v>0.03755868544600939</v>
+      </c>
+      <c r="O48">
+        <v>1.266233766233766</v>
+      </c>
+      <c r="P48">
+        <v>0.01408450704225352</v>
       </c>
       <c r="S48">
-        <v>0.1457286432160804</v>
-      </c>
-      <c r="W48">
-        <v>0.04020100502512563</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="AA48">
-        <v>0.08040201005025126</v>
-      </c>
-      <c r="AE48">
-        <v>0.06030150753768844</v>
-      </c>
-      <c r="AI48">
-        <v>0.07035175879396985</v>
-      </c>
-      <c r="AL48">
-        <v>0.6984924623115578</v>
-      </c>
-      <c r="AM48">
-        <v>0.04020100502512563</v>
-      </c>
-      <c r="AW48">
-        <v>0.09285714285714286</v>
-      </c>
-      <c r="AX48">
-        <v>0.01507537688442211</v>
-      </c>
-    </row>
-    <row r="49" spans="1:50">
+        <v>0.1502347417840376</v>
+      </c>
+      <c r="AD48">
+        <v>0.03755868544600939</v>
+      </c>
+      <c r="AO48">
+        <v>0.09740259740259741</v>
+      </c>
+      <c r="AQ48">
+        <v>0.6901408450704225</v>
+      </c>
+      <c r="AT48">
+        <v>0.07511737089201878</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B49">
         <v>-15</v>
@@ -2412,34 +2385,34 @@
       <c r="C49">
         <v>180</v>
       </c>
-      <c r="R49">
-        <v>2.295373665480427</v>
-      </c>
-      <c r="S49">
-        <v>0.199288256227758</v>
-      </c>
-      <c r="V49">
-        <v>0.1138790035587189</v>
-      </c>
-      <c r="W49">
-        <v>0.06049822064056939</v>
-      </c>
-      <c r="Z49">
-        <v>0.1779359430604982</v>
+      <c r="M49">
+        <v>2.294303797468354</v>
+      </c>
+      <c r="P49">
+        <v>0.0189873417721519</v>
       </c>
       <c r="AA49">
-        <v>0.1387900355871886</v>
-      </c>
-      <c r="AW49">
-        <v>0.0898876404494382</v>
-      </c>
-      <c r="AX49">
-        <v>0.02135231316725979</v>
-      </c>
-    </row>
-    <row r="50" spans="1:50">
+        <v>0.189873417721519</v>
+      </c>
+      <c r="AD49">
+        <v>0.0759493670886076</v>
+      </c>
+      <c r="AK49">
+        <v>0.1772151898734177</v>
+      </c>
+      <c r="AN49">
+        <v>0.1107594936708861</v>
+      </c>
+      <c r="AO49">
+        <v>0.09859154929577464</v>
+      </c>
+      <c r="AT49">
+        <v>0.1455696202531646</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B50">
         <v>-9</v>
@@ -2447,34 +2420,34 @@
       <c r="C50">
         <v>108</v>
       </c>
-      <c r="G50">
-        <v>1.294117647058824</v>
+      <c r="I50">
+        <v>0.1714285714285714</v>
+      </c>
+      <c r="O50">
+        <v>1.25</v>
+      </c>
+      <c r="P50">
+        <v>0.05714285714285714</v>
       </c>
       <c r="S50">
-        <v>0.1071428571428571</v>
-      </c>
-      <c r="W50">
-        <v>0.03571428571428571</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="AA50">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="AE50">
-        <v>0.1785714285714286</v>
-      </c>
-      <c r="AI50">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="AW50">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="AX50">
-        <v>0.07142857142857142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:50">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="AD50">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="AO50">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="AT50">
+        <v>0.1714285714285714</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B51">
         <v>-12</v>
@@ -2482,34 +2455,34 @@
       <c r="C51">
         <v>144</v>
       </c>
-      <c r="G51">
-        <v>1.087719298245614</v>
-      </c>
-      <c r="S51">
-        <v>3.507692307692308</v>
-      </c>
-      <c r="V51">
-        <v>0.03076923076923077</v>
-      </c>
-      <c r="W51">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="Z51">
-        <v>0.01538461538461539</v>
+      <c r="O51">
+        <v>1.044117647058824</v>
+      </c>
+      <c r="P51">
+        <v>0.05263157894736842</v>
       </c>
       <c r="AA51">
-        <v>0.3230769230769231</v>
-      </c>
-      <c r="AW51">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="AX51">
-        <v>0.06153846153846154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:50">
+        <v>3.526315789473684</v>
+      </c>
+      <c r="AD51">
+        <v>0.1578947368421053</v>
+      </c>
+      <c r="AK51">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="AN51">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="AO51">
+        <v>0.08823529411764706</v>
+      </c>
+      <c r="AT51">
+        <v>0.3026315789473684</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B52">
         <v>-12</v>
@@ -2517,34 +2490,34 @@
       <c r="C52">
         <v>144</v>
       </c>
-      <c r="F52">
-        <v>0.04838709677419355</v>
-      </c>
-      <c r="G52">
-        <v>1.419354838709677</v>
-      </c>
-      <c r="AD52">
-        <v>0.02272727272727273</v>
-      </c>
-      <c r="AE52">
-        <v>2.397727272727273</v>
+      <c r="I52">
+        <v>2.387096774193548</v>
+      </c>
+      <c r="K52">
+        <v>0.05970149253731343</v>
+      </c>
+      <c r="L52">
+        <v>0.1720430107526882</v>
+      </c>
+      <c r="O52">
+        <v>1.388059701492537</v>
+      </c>
+      <c r="P52">
+        <v>0.01075268817204301</v>
+      </c>
+      <c r="Q52">
+        <v>0.01075268817204301</v>
+      </c>
+      <c r="S52">
+        <v>0.1720430107526882</v>
       </c>
       <c r="AH52">
-        <v>0.01136363636363636</v>
-      </c>
-      <c r="AI52">
-        <v>0.1590909090909091</v>
-      </c>
-      <c r="AM52">
-        <v>0.1704545454545454</v>
-      </c>
-      <c r="AX52">
-        <v>0.01136363636363636</v>
-      </c>
-    </row>
-    <row r="53" spans="1:50">
+        <v>0.02150537634408602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B53">
         <v>-12</v>
@@ -2552,37 +2525,37 @@
       <c r="C53">
         <v>144</v>
       </c>
-      <c r="G53">
-        <v>1.097222222222222</v>
-      </c>
-      <c r="R53">
-        <v>0.0303030303030303</v>
-      </c>
-      <c r="S53">
-        <v>0.2929292929292929</v>
-      </c>
-      <c r="V53">
-        <v>0.0101010101010101</v>
-      </c>
-      <c r="W53">
-        <v>0.1313131313131313</v>
-      </c>
-      <c r="Z53">
-        <v>0.0202020202020202</v>
+      <c r="M53">
+        <v>0.0297029702970297</v>
+      </c>
+      <c r="O53">
+        <v>1.094594594594595</v>
+      </c>
+      <c r="P53">
+        <v>0.009900990099009901</v>
       </c>
       <c r="AA53">
-        <v>2.555555555555555</v>
-      </c>
-      <c r="AW53">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="AX53">
-        <v>0.0101010101010101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:50">
+        <v>0.2871287128712871</v>
+      </c>
+      <c r="AD53">
+        <v>0.1287128712871287</v>
+      </c>
+      <c r="AK53">
+        <v>0.0198019801980198</v>
+      </c>
+      <c r="AN53">
+        <v>0.009900990099009901</v>
+      </c>
+      <c r="AO53">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="AT53">
+        <v>2.554455445544555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B54">
         <v>-12</v>
@@ -2590,34 +2563,34 @@
       <c r="C54">
         <v>144</v>
       </c>
-      <c r="F54">
-        <v>0.07482993197278912</v>
-      </c>
-      <c r="G54">
-        <v>1.244897959183674</v>
-      </c>
-      <c r="AD54">
-        <v>0.005649717514124294</v>
-      </c>
-      <c r="AE54">
-        <v>0.231638418079096</v>
+      <c r="I54">
+        <v>0.2359550561797753</v>
+      </c>
+      <c r="K54">
+        <v>0.04054054054054054</v>
+      </c>
+      <c r="L54">
+        <v>0.247191011235955</v>
+      </c>
+      <c r="O54">
+        <v>1.222972972972973</v>
+      </c>
+      <c r="P54">
+        <v>0.01685393258426966</v>
+      </c>
+      <c r="Q54">
+        <v>0.03370786516853932</v>
+      </c>
+      <c r="S54">
+        <v>1.97752808988764</v>
       </c>
       <c r="AH54">
-        <v>0.03389830508474576</v>
-      </c>
-      <c r="AI54">
-        <v>1.954802259887006</v>
-      </c>
-      <c r="AM54">
-        <v>0.2542372881355932</v>
-      </c>
-      <c r="AX54">
-        <v>0.01694915254237288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:50">
+        <v>0.01123595505617977</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B55">
         <v>-12</v>
@@ -2625,28 +2598,28 @@
       <c r="C55">
         <v>144</v>
       </c>
-      <c r="F55">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="G55">
-        <v>1.387096774193548</v>
-      </c>
-      <c r="AE55">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="AI55">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="AM55">
-        <v>2.047619047619047</v>
-      </c>
-      <c r="AX55">
-        <v>0.02380952380952381</v>
-      </c>
-    </row>
-    <row r="56" spans="1:50">
+      <c r="I55">
+        <v>0.2</v>
+      </c>
+      <c r="K55">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="L55">
+        <v>2.1</v>
+      </c>
+      <c r="O55">
+        <v>1.379310344827586</v>
+      </c>
+      <c r="P55">
+        <v>0.025</v>
+      </c>
+      <c r="S55">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B56">
         <v>-15</v>
@@ -2654,37 +2627,37 @@
       <c r="C56">
         <v>180</v>
       </c>
-      <c r="F56">
-        <v>0.1469979296066252</v>
-      </c>
-      <c r="G56">
-        <v>0.09109730848861283</v>
-      </c>
-      <c r="AD56">
-        <v>1.536134453781513</v>
-      </c>
-      <c r="AE56">
-        <v>0.1327731092436975</v>
+      <c r="I56">
+        <v>0.1321044546850998</v>
+      </c>
+      <c r="K56">
+        <v>0.1521335807050093</v>
+      </c>
+      <c r="L56">
+        <v>0.119815668202765</v>
+      </c>
+      <c r="O56">
+        <v>0.08719851576994433</v>
+      </c>
+      <c r="P56">
+        <v>0.02918586789554532</v>
+      </c>
+      <c r="Q56">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="S56">
+        <v>0.1136712749615975</v>
       </c>
       <c r="AH56">
-        <v>0.0907563025210084</v>
-      </c>
-      <c r="AI56">
-        <v>0.1142857142857143</v>
-      </c>
-      <c r="AL56">
-        <v>0.1310924369747899</v>
-      </c>
-      <c r="AM56">
-        <v>0.1226890756302521</v>
-      </c>
-      <c r="AX56">
-        <v>0.03025210084033613</v>
-      </c>
-    </row>
-    <row r="57" spans="1:50">
+        <v>1.529953917050691</v>
+      </c>
+      <c r="AQ56">
+        <v>0.130568356374808</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B57">
         <v>-15</v>
@@ -2692,34 +2665,34 @@
       <c r="C57">
         <v>180</v>
       </c>
-      <c r="R57">
-        <v>0.2118863049095607</v>
-      </c>
-      <c r="S57">
-        <v>0.2041343669250646</v>
-      </c>
-      <c r="V57">
-        <v>0.08785529715762273</v>
-      </c>
-      <c r="W57">
-        <v>0.07493540051679587</v>
-      </c>
-      <c r="Z57">
-        <v>1.534883720930233</v>
+      <c r="M57">
+        <v>0.2057416267942584</v>
+      </c>
+      <c r="P57">
+        <v>0.02631578947368421</v>
       </c>
       <c r="AA57">
-        <v>0.1214470284237726</v>
-      </c>
-      <c r="AW57">
-        <v>0.1401869158878505</v>
-      </c>
-      <c r="AX57">
-        <v>0.02842377260981912</v>
-      </c>
-    </row>
-    <row r="58" spans="1:50">
+        <v>0.2033492822966507</v>
+      </c>
+      <c r="AD57">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="AK57">
+        <v>1.538277511961722</v>
+      </c>
+      <c r="AN57">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="AO57">
+        <v>0.1444759206798867</v>
+      </c>
+      <c r="AT57">
+        <v>0.1220095693779904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B58">
         <v>-15</v>
@@ -2727,37 +2700,37 @@
       <c r="C58">
         <v>180</v>
       </c>
-      <c r="F58">
-        <v>0.1194029850746269</v>
-      </c>
-      <c r="G58">
-        <v>0.09950248756218906</v>
-      </c>
-      <c r="AD58">
-        <v>0.1576227390180878</v>
-      </c>
-      <c r="AE58">
-        <v>0.1550387596899225</v>
+      <c r="I58">
+        <v>0.1571428571428571</v>
+      </c>
+      <c r="K58">
+        <v>0.1452991452991453</v>
+      </c>
+      <c r="L58">
+        <v>0.1</v>
+      </c>
+      <c r="O58">
+        <v>0.08547008547008547</v>
+      </c>
+      <c r="P58">
+        <v>0.02619047619047619</v>
+      </c>
+      <c r="Q58">
+        <v>1.233333333333333</v>
+      </c>
+      <c r="S58">
+        <v>0.1476190476190476</v>
       </c>
       <c r="AH58">
-        <v>1.24031007751938</v>
-      </c>
-      <c r="AI58">
-        <v>0.1524547803617571</v>
-      </c>
-      <c r="AL58">
-        <v>0.09043927648578812</v>
-      </c>
-      <c r="AM58">
-        <v>0.09560723514211886</v>
-      </c>
-      <c r="AX58">
-        <v>0.02842377260981912</v>
-      </c>
-    </row>
-    <row r="59" spans="1:50">
+        <v>0.15</v>
+      </c>
+      <c r="AQ58">
+        <v>0.09523809523809523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B59">
         <v>-15</v>
@@ -2765,34 +2738,34 @@
       <c r="C59">
         <v>180</v>
       </c>
-      <c r="R59">
-        <v>0.2005277044854881</v>
-      </c>
-      <c r="S59">
-        <v>0.1794195250659631</v>
-      </c>
-      <c r="V59">
-        <v>0.9234828496042217</v>
-      </c>
-      <c r="W59">
-        <v>0.06068601583113457</v>
-      </c>
-      <c r="Z59">
-        <v>0.1820580474934037</v>
+      <c r="M59">
+        <v>0.1916167664670659</v>
+      </c>
+      <c r="P59">
+        <v>0.01996007984031936</v>
       </c>
       <c r="AA59">
-        <v>0.1213720316622691</v>
-      </c>
-      <c r="AW59">
-        <v>0.1204819277108434</v>
-      </c>
-      <c r="AX59">
-        <v>0.0237467018469657</v>
-      </c>
-    </row>
-    <row r="60" spans="1:50">
+        <v>0.1736526946107785</v>
+      </c>
+      <c r="AD59">
+        <v>0.07584830339321358</v>
+      </c>
+      <c r="AK59">
+        <v>0.1716566866267465</v>
+      </c>
+      <c r="AN59">
+        <v>0.908183632734531</v>
+      </c>
+      <c r="AO59">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="AT59">
+        <v>0.12375249500998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B60">
         <v>-18</v>
@@ -2800,46 +2773,46 @@
       <c r="C60">
         <v>216</v>
       </c>
-      <c r="E60">
-        <v>0.08035714285714286</v>
-      </c>
-      <c r="F60">
-        <v>0.09523809523809523</v>
-      </c>
       <c r="G60">
-        <v>0.08333333333333333</v>
+        <v>0.07253269916765755</v>
+      </c>
+      <c r="I60">
+        <v>0.1867897727272727</v>
       </c>
       <c r="K60">
-        <v>0.02098466505246166</v>
-      </c>
-      <c r="AC60">
-        <v>0.02502017756255044</v>
-      </c>
-      <c r="AD60">
-        <v>0.2025827280064568</v>
-      </c>
-      <c r="AE60">
-        <v>0.1848264729620662</v>
-      </c>
-      <c r="AF60">
-        <v>0.03712671509281679</v>
-      </c>
-      <c r="AG60">
-        <v>0.3204196933010492</v>
+        <v>0.09512485136741974</v>
+      </c>
+      <c r="O60">
+        <v>0.08323424494649227</v>
+      </c>
+      <c r="P60">
+        <v>0.0234375</v>
+      </c>
+      <c r="Q60">
+        <v>0.1427556818181818</v>
+      </c>
+      <c r="R60">
+        <v>0.03622159090909091</v>
+      </c>
+      <c r="S60">
+        <v>0.1306818181818182</v>
+      </c>
+      <c r="T60">
+        <v>0.3210227272727273</v>
       </c>
       <c r="AH60">
-        <v>0.1412429378531073</v>
+        <v>0.2066761363636364</v>
       </c>
       <c r="AI60">
-        <v>0.1355932203389831</v>
-      </c>
-      <c r="AX60">
-        <v>0.02179176755447942</v>
-      </c>
-    </row>
-    <row r="61" spans="1:50">
+        <v>0.02485795454545454</v>
+      </c>
+      <c r="AP60">
+        <v>0.01988636363636364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B61">
         <v>-18</v>
@@ -2847,28 +2820,28 @@
       <c r="C61">
         <v>216</v>
       </c>
-      <c r="O61">
-        <v>0.04166666666666666</v>
-      </c>
-      <c r="Z61">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="AA61">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="AL61">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="AM61">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="AX61">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:50">
+      <c r="D61">
+        <v>0.04</v>
+      </c>
+      <c r="L61">
+        <v>0.36</v>
+      </c>
+      <c r="P61">
+        <v>0.28</v>
+      </c>
+      <c r="AK61">
+        <v>0.08</v>
+      </c>
+      <c r="AQ61">
+        <v>0.16</v>
+      </c>
+      <c r="AT61">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B62">
         <v>-18</v>
@@ -2876,40 +2849,40 @@
       <c r="C62">
         <v>216</v>
       </c>
-      <c r="E62">
-        <v>0.04</v>
-      </c>
-      <c r="F62">
-        <v>0.04</v>
-      </c>
       <c r="G62">
-        <v>0.12</v>
+        <v>0.03225806451612903</v>
+      </c>
+      <c r="I62">
+        <v>0.1666666666666667</v>
       </c>
       <c r="K62">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="AD62">
-        <v>0.2222222222222222</v>
-      </c>
-      <c r="AE62">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="AG62">
-        <v>0.05555555555555555</v>
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="O62">
+        <v>0.09677419354838709</v>
+      </c>
+      <c r="P62">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q62">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="S62">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="T62">
+        <v>0.04761904761904762</v>
       </c>
       <c r="AH62">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="AI62">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="AX62">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:50">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="AP62">
+        <v>0.04761904761904762</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B63">
         <v>-18</v>
@@ -2917,40 +2890,40 @@
       <c r="C63">
         <v>216</v>
       </c>
-      <c r="E63">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="F63">
-        <v>0.04347826086956522</v>
-      </c>
       <c r="G63">
-        <v>0.1304347826086956</v>
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="I63">
+        <v>0.2352941176470588</v>
       </c>
       <c r="K63">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="AC63">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="AD63">
-        <v>0.1515151515151515</v>
-      </c>
-      <c r="AE63">
-        <v>0.2424242424242424</v>
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="O63">
+        <v>0.125</v>
+      </c>
+      <c r="P63">
+        <v>0.2647058823529412</v>
+      </c>
+      <c r="Q63">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="S63">
+        <v>0.05882352941176471</v>
       </c>
       <c r="AH63">
-        <v>0.1212121212121212</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="AI63">
-        <v>0.06060606060606061</v>
-      </c>
-      <c r="AX63">
-        <v>0.2424242424242424</v>
-      </c>
-    </row>
-    <row r="64" spans="1:50">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="AP63">
+        <v>0.05882352941176471</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B64">
         <v>-18</v>
@@ -2958,28 +2931,28 @@
       <c r="C64">
         <v>216</v>
       </c>
-      <c r="Z64">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="AA64">
-        <v>0.4761904761904762</v>
+      <c r="L64">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="P64">
+        <v>0.2173913043478261</v>
       </c>
       <c r="AK64">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="AL64">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="AM64">
-        <v>0.1904761904761905</v>
-      </c>
-      <c r="AX64">
-        <v>0.2380952380952381</v>
-      </c>
-    </row>
-    <row r="65" spans="1:50">
+        <v>0.1739130434782609</v>
+      </c>
+      <c r="AQ64">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="AR64">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="AT64">
+        <v>0.4782608695652174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B65">
         <v>-21</v>
@@ -2987,43 +2960,43 @@
       <c r="C65">
         <v>3480</v>
       </c>
-      <c r="E65">
-        <v>0.0568760611205433</v>
-      </c>
-      <c r="F65">
-        <v>0.1392190152801358</v>
-      </c>
       <c r="G65">
-        <v>0.1018675721561969</v>
+        <v>0.06050129645635264</v>
+      </c>
+      <c r="I65">
+        <v>0.1164021164021164</v>
       </c>
       <c r="K65">
-        <v>0.04756380510440835</v>
-      </c>
-      <c r="AC65">
-        <v>0.0580046403712297</v>
-      </c>
-      <c r="AD65">
-        <v>0.2001160092807425</v>
-      </c>
-      <c r="AE65">
-        <v>0.1160092807424594</v>
-      </c>
-      <c r="AG65">
-        <v>0.04060324825986079</v>
+        <v>0.1348314606741573</v>
+      </c>
+      <c r="O65">
+        <v>0.09680207433016422</v>
+      </c>
+      <c r="P65">
+        <v>0.03057025279247502</v>
+      </c>
+      <c r="Q65">
+        <v>0.1481481481481481</v>
+      </c>
+      <c r="S65">
+        <v>0.09229864785420341</v>
+      </c>
+      <c r="T65">
+        <v>0.0411522633744856</v>
       </c>
       <c r="AH65">
-        <v>0.1467517401392111</v>
+        <v>0.1969429747207525</v>
       </c>
       <c r="AI65">
-        <v>0.09338747099767981</v>
-      </c>
-      <c r="AX65">
-        <v>0.03132250580046404</v>
-      </c>
-    </row>
-    <row r="66" spans="1:50">
+        <v>0.05584950029394474</v>
+      </c>
+      <c r="AP65">
+        <v>0.05349794238683128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B66">
         <v>-18</v>
@@ -3031,37 +3004,37 @@
       <c r="C66">
         <v>216</v>
       </c>
-      <c r="E66">
-        <v>0.04</v>
-      </c>
       <c r="G66">
-        <v>0.12</v>
-      </c>
-      <c r="K66">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="AC66">
-        <v>0.05555555555555555</v>
-      </c>
-      <c r="AD66">
-        <v>0.2777777777777778</v>
-      </c>
-      <c r="AE66">
-        <v>0.1944444444444444</v>
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="I66">
+        <v>0.2</v>
+      </c>
+      <c r="O66">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="P66">
+        <v>0.2</v>
+      </c>
+      <c r="Q66">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="S66">
+        <v>0.1714285714285714</v>
       </c>
       <c r="AH66">
-        <v>0.1111111111111111</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="AI66">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="AX66">
-        <v>0.1944444444444444</v>
-      </c>
-    </row>
-    <row r="67" spans="1:50">
+        <v>0.05714285714285714</v>
+      </c>
+      <c r="AP66">
+        <v>0.08571428571428572</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B67">
         <v>-18</v>
@@ -3069,37 +3042,37 @@
       <c r="C67">
         <v>216</v>
       </c>
-      <c r="M67">
-        <v>0.03076923076923077</v>
-      </c>
-      <c r="O67">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="Y67">
-        <v>0.01538461538461539</v>
-      </c>
-      <c r="Z67">
-        <v>0.1076923076923077</v>
-      </c>
-      <c r="AA67">
-        <v>0.2615384615384616</v>
+      <c r="D67">
+        <v>0.06060606060606061</v>
+      </c>
+      <c r="L67">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="P67">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="AC67">
+        <v>0.0303030303030303</v>
       </c>
       <c r="AK67">
-        <v>0.04615384615384616</v>
-      </c>
-      <c r="AL67">
-        <v>0.1230769230769231</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="AM67">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="AX67">
-        <v>0.1692307692307692</v>
-      </c>
-    </row>
-    <row r="68" spans="1:50">
+        <v>0.01515151515151515</v>
+      </c>
+      <c r="AQ67">
+        <v>0.1212121212121212</v>
+      </c>
+      <c r="AR67">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="AT67">
+        <v>0.2575757575757576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B68">
         <v>-21</v>
@@ -3107,43 +3080,43 @@
       <c r="C68">
         <v>252</v>
       </c>
-      <c r="E68">
-        <v>3.378947368421052</v>
-      </c>
-      <c r="F68">
-        <v>0.131578947368421</v>
-      </c>
       <c r="G68">
-        <v>0.08421052631578947</v>
+        <v>3.634615384615385</v>
+      </c>
+      <c r="I68">
+        <v>0.0970464135021097</v>
       </c>
       <c r="K68">
-        <v>0.05459770114942529</v>
-      </c>
-      <c r="AC68">
-        <v>0.03735632183908046</v>
-      </c>
-      <c r="AD68">
-        <v>0.1867816091954023</v>
-      </c>
-      <c r="AE68">
-        <v>0.08620689655172414</v>
-      </c>
-      <c r="AG68">
-        <v>0.02298850574712644</v>
+        <v>0.1474358974358974</v>
+      </c>
+      <c r="O68">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="P68">
+        <v>0.02531645569620253</v>
+      </c>
+      <c r="Q68">
+        <v>0.1181434599156118</v>
+      </c>
+      <c r="S68">
+        <v>0.1308016877637131</v>
+      </c>
+      <c r="T68">
+        <v>0.02109704641350211</v>
       </c>
       <c r="AH68">
-        <v>0.1120689655172414</v>
+        <v>0.2278481012658228</v>
       </c>
       <c r="AI68">
-        <v>0.1149425287356322</v>
-      </c>
-      <c r="AX68">
-        <v>0.04022988505747126</v>
-      </c>
-    </row>
-    <row r="69" spans="1:50">
+        <v>0.03375527426160337</v>
+      </c>
+      <c r="AP68">
+        <v>0.05485232067510549</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B69">
         <v>-10</v>
@@ -3151,10 +3124,13 @@
       <c r="C69">
         <v>120</v>
       </c>
-    </row>
-    <row r="70" spans="1:50">
+      <c r="AE69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B70">
         <v>-15</v>
@@ -3162,13 +3138,16 @@
       <c r="C70">
         <v>180</v>
       </c>
-      <c r="AS70">
-        <v>3.833333333333333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:50">
+      <c r="P70">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="AE70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B71">
         <v>-20</v>
@@ -3176,19 +3155,19 @@
       <c r="C71">
         <v>240</v>
       </c>
-      <c r="AR71">
-        <v>2.46551724137931</v>
-      </c>
-      <c r="AS71">
-        <v>0.7068965517241379</v>
-      </c>
-      <c r="AX71">
-        <v>0.1379310344827586</v>
-      </c>
-    </row>
-    <row r="72" spans="1:50">
+      <c r="P71">
+        <v>0.1147540983606557</v>
+      </c>
+      <c r="AE71">
+        <v>0.7377049180327869</v>
+      </c>
+      <c r="AF71">
+        <v>2.60655737704918</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B72">
         <v>-25</v>
@@ -3196,19 +3175,19 @@
       <c r="C72">
         <v>300</v>
       </c>
-      <c r="AQ72">
-        <v>2.092307692307692</v>
-      </c>
-      <c r="AR72">
-        <v>0.7384615384615385</v>
-      </c>
-      <c r="AX72">
-        <v>0.07692307692307693</v>
-      </c>
-    </row>
-    <row r="73" spans="1:50">
+      <c r="P72">
+        <v>0.09677419354838709</v>
+      </c>
+      <c r="AF72">
+        <v>0.7258064516129032</v>
+      </c>
+      <c r="AG72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B73">
         <v>-30</v>
@@ -3216,14 +3195,14 @@
       <c r="C73">
         <v>360</v>
       </c>
-      <c r="AQ73">
-        <v>2.956043956043956</v>
-      </c>
-      <c r="AR73">
-        <v>0.4945054945054945</v>
-      </c>
-      <c r="AX73">
-        <v>0.06593406593406594</v>
+      <c r="P73">
+        <v>0.04363636363636364</v>
+      </c>
+      <c r="AF73">
+        <v>0.4363636363636363</v>
+      </c>
+      <c r="AG73">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3250,159 +3229,159 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="AY1" s="1" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:53">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3425,7 +3404,7 @@
     </row>
     <row r="3" spans="1:53">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3448,7 +3427,7 @@
     </row>
     <row r="4" spans="1:53">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -3471,7 +3450,7 @@
     </row>
     <row r="5" spans="1:53">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3494,7 +3473,7 @@
     </row>
     <row r="6" spans="1:53">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3511,7 +3490,7 @@
     </row>
     <row r="7" spans="1:53">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3531,7 +3510,7 @@
     </row>
     <row r="8" spans="1:53">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3548,7 +3527,7 @@
     </row>
     <row r="9" spans="1:53">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3565,7 +3544,7 @@
     </row>
     <row r="10" spans="1:53">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3675,7 +3654,7 @@
     </row>
     <row r="17" spans="1:49">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3692,7 +3671,7 @@
     </row>
     <row r="18" spans="1:49">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3715,7 +3694,7 @@
     </row>
     <row r="19" spans="1:49">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3732,7 +3711,7 @@
     </row>
     <row r="20" spans="1:49">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -3746,7 +3725,7 @@
     </row>
     <row r="21" spans="1:49">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3760,7 +3739,7 @@
     </row>
     <row r="22" spans="1:49">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -3777,7 +3756,7 @@
     </row>
     <row r="23" spans="1:49">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3800,7 +3779,7 @@
     </row>
     <row r="24" spans="1:49">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -3823,7 +3802,7 @@
     </row>
     <row r="25" spans="1:49">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -3837,7 +3816,7 @@
     </row>
     <row r="26" spans="1:49">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3851,7 +3830,7 @@
     </row>
     <row r="27" spans="1:49">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3868,7 +3847,7 @@
     </row>
     <row r="28" spans="1:49">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3885,7 +3864,7 @@
     </row>
     <row r="29" spans="1:49">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3908,7 +3887,7 @@
     </row>
     <row r="30" spans="1:49">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3931,7 +3910,7 @@
     </row>
     <row r="31" spans="1:49">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3948,7 +3927,7 @@
     </row>
     <row r="32" spans="1:49">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -3971,7 +3950,7 @@
     </row>
     <row r="33" spans="1:53">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3988,7 +3967,7 @@
     </row>
     <row r="34" spans="1:53">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4005,7 +3984,7 @@
     </row>
     <row r="35" spans="1:53">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4022,7 +4001,7 @@
     </row>
     <row r="36" spans="1:53">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4039,7 +4018,7 @@
     </row>
     <row r="37" spans="1:53">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4056,7 +4035,7 @@
     </row>
     <row r="38" spans="1:53">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4079,7 +4058,7 @@
     </row>
     <row r="39" spans="1:53">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -4120,102 +4099,114 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1170000</v>
+        <v>119</v>
       </c>
       <c r="C2">
-        <v>0.003999999999905413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>142.5532124357323</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>92.21970914241683</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>89.58432537382032</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-4.585072019835934e-06</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>-1</v>
       </c>
       <c r="C7">
-        <v>65.40253134515933</v>
+        <v>45.59451373780939</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>-127</v>
-      </c>
       <c r="C8">
-        <v>0</v>
+        <v>47.67935257230511</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>86.46493982946413</v>
+        <v>34.62740225406651</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>-8</v>
       </c>
       <c r="C10">
-        <v>29.4420893418519</v>
+        <v>45.67935274790489</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="C11">
-        <v>71.13046745076099</v>
+        <v>32.0706283994823</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>-69</v>
+        <v>-4</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>26.87845468167961</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4223,243 +4214,267 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>-2</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>105.0448332258638</v>
+        <v>21.79723383422152</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="C14">
-        <v>36.85391672307651</v>
+        <v>8.456849938989762</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>-9</v>
       </c>
       <c r="C15">
-        <v>1.546140993013978e-11</v>
+        <v>6.519613016924268</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>20.91231168882769</v>
+        <v>4.199446584516409</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>-15</v>
       </c>
       <c r="C17">
-        <v>4.022462337800789</v>
+        <v>2.685616864229814</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>-9</v>
       </c>
       <c r="C18">
-        <v>1.207487445963125</v>
+        <v>2.039870858422546</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>82.72341612223408</v>
+        <v>2.861385473806877e-05</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>39.69879274460618</v>
+        <v>1.266482405723764</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>34</v>
+      </c>
+      <c r="B21">
+        <v>-12</v>
       </c>
       <c r="C21">
-        <v>9.724698186174464</v>
+        <v>0.7999999746498361</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
       </c>
       <c r="C22">
-        <v>3.108232728744952</v>
+        <v>0.8000435115500295</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>1400000</v>
       </c>
       <c r="C23">
-        <v>82.88466934050757</v>
+        <v>0.004000000045380148</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C24">
-        <v>26.38076114584965</v>
+        <v>1.523458104202291e-05</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="C25">
-        <v>6.395190286480101</v>
+        <v>3.861811546812532e-05</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>1.998396762171978</v>
+        <v>4.18302915932145e-05</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="C27">
-        <v>1.818989403545856e-12</v>
+        <v>3.938069039577385e-05</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C28">
-        <v>27.34861462209028</v>
+        <v>3.756628302653553e-05</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C29">
-        <v>6.63715365551343</v>
+        <v>5.46970113646239e-08</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C30">
-        <v>2.079051218502173</v>
+        <v>-1.565222191857174e-07</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>3.183231456205249e-11</v>
+        <v>-2.917140591307543e-07</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C32">
-        <v>30.23167470619956</v>
+        <v>-9.42964106798172e-09</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C33">
-        <v>7.357918676558256</v>
+        <v>-5.976653483230621e-08</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>2.319306225531363</v>
+        <v>1.692660589469597e-08</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="B35">
+        <v>-26</v>
       </c>
       <c r="C35">
-        <v>-3.637978807091713e-12</v>
+        <v>-1.662774593569338e-07</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <v>-22</v>
       </c>
       <c r="C36">
-        <v>28.92314704889031</v>
+        <v>1.489038731961045e-05</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>-14</v>
       </c>
       <c r="C37">
-        <v>7.030786762243224</v>
+        <v>-4.858156898990273e-08</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C38">
-        <v>2.21026225407968</v>
+        <v>-1.18773641588632e-07</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>-125</v>
       </c>
       <c r="C39">
-        <v>264.2402405060893</v>
+        <v>4.60295268567279e-09</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>-57</v>
       </c>
       <c r="C40">
-        <v>214.2255339788162</v>
+        <v>-6.672962626907974e-08</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4467,7 +4482,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>121</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4475,82 +4490,91 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1.425029040547088e-06</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="B44">
+        <v>-14</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>2.93064076686278e-05</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>5.598849384114146e-09</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>-16</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>-7.418966561090201e-07</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3.34976903104689e-07</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1.224455263582058e-05</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>2.711232900765026e-05</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>-0.01090203522380762</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>-0.003326981248392258</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>24</v>
+      </c>
+      <c r="B52">
+        <v>-1</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1.098571647162316e-05</v>
       </c>
     </row>
   </sheetData>
@@ -4576,650 +4600,650 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>9.379349836713722e-08</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.363516204016586e-07</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1.294515260475511e-07</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B5">
-        <v>10.92252797154665</v>
+        <v>71.35514084135313</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3.490147582700343e-07</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>9.740624799484423e-08</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>20.12289359128381</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>9.706271018076522e-08</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>7.338989479169948e-08</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1.20784858165919e-06</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B12">
-        <v>5.270308954555013</v>
+        <v>7.963756761718588e-08</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B13">
-        <v>47.74223077170659</v>
+        <v>1.36990461647505e-06</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1.516864452315384e-07</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>7.685528672762869e-08</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>6.210200782027643e-08</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B17">
-        <v>16.13756842106035</v>
+        <v>13.45518284926347</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B18">
-        <v>39.68078717235218</v>
+        <v>26.83021791955936</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>7.010204678241025e-08</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B20">
-        <v>13.31493525607269</v>
+        <v>6.320269104305154e-08</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>2.570047118733052e-07</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>20.51846666182384</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>1.201703497487509e-12</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>4.205476100057874e-08</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B25">
-        <v>1.699581208374677e-12</v>
+        <v>4.345287211288979e-08</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>8.43268440721877e-08</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>5.772727647061277e-08</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>6.820372297462346e-07</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B29">
-        <v>1.130492739662177e-14</v>
+        <v>1.158144432820124e-07</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>3.471288403291502e-07</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>5.168840264656548e-08</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B32">
-        <v>9.054600606673763</v>
+        <v>1.300917240394408e-06</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>8.662343909851064e-08</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>6.160585988238781e-08</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3.655326929941963e-08</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>4.432503561090898e-08</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>3.668648523573365e-08</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>2.318539596637716e-07</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1.786477926250981e-07</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>1.772545043139722e-07</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>2.699552779839525e-07</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B42">
-        <v>142.7896165366646</v>
+        <v>186.4137894203937</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>7.568680260205183e-08</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>4.570245813099142e-08</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>3.329732125707202e-08</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B46">
-        <v>0</v>
+        <v>2.675681529678928e-08</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B47">
-        <v>0</v>
+        <v>2.224024070888241e-08</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>3.714026694699375e-07</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>3.131681984287194e-07</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1.019692694147554e-07</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>1.139592122179975e-07</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>7.524469777664424e-08</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>1.411651703391844e-07</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>7.598954962456651e-08</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1.437340679218559e-07</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>6.085513723537912e-08</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>2.827060524635018e-07</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>5.937681934878836e-08</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>6.178473025934667e-08</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>4.293220055850937e-08</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>5.619127038810765e-08</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>4.235108915817486e-08</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>4.386023356793248e-08</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>5.312944816078456e-08</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B65">
-        <v>26.87404509236811</v>
+        <v>1.265042516560291e-07</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>4.56949610050184e-08</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>7.165011183140056e-08</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>7.093617839094781e-08</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>2.251886573735965e-07</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>3.02219337788137e-07</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>1.962751118143078e-07</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>7.520881633565159e-08</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>6.767217893738223e-08</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>6.084005313481312e-09</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B75">
-        <v>0.6299292214357829</v>
+        <v>7.005194861843516e-09</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B76">
-        <v>7.999999999999998</v>
+        <v>4.999999999588225</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B77">
-        <v>3</v>
+        <v>5.265701081240532e-07</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B78">
-        <v>2.30881888358702</v>
+        <v>1.000001780293431</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>3.000000004504237</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B80">
-        <v>11.17044057269473</v>
+        <v>5.119015066158262</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B81">
-        <v>7.25985844287154</v>
+        <v>19.99999952036949</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>3.2354151406096e-07</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -5227,7 +5251,7 @@
         <v>125</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>2.099064664138858e-07</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5235,7 +5259,7 @@
         <v>125</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>1.802147014255422e-07</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -5243,7 +5267,7 @@
         <v>125</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>2.007372220070188e-07</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -5251,7 +5275,7 @@
         <v>125</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1.941053495692668e-07</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -5259,7 +5283,7 @@
         <v>125</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>6.790988572711437e-08</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -5267,191 +5291,191 @@
         <v>125</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1.949342839253469e-08</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B89">
-        <v>1.98935073040606</v>
+        <v>1.644395053395846e-06</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>5.07416615267976e-08</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B91">
-        <v>1.908826475367837</v>
+        <v>1.049516286512855e-06</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="B92">
-        <v>3.953832346641757</v>
+        <v>2.674272032622281</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B93">
-        <v>1.317944115547252</v>
+        <v>0.6103437183311377</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>6.057358862617964e-09</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B95">
-        <v>2.999999999999998</v>
+        <v>2.000000016494544</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B96">
-        <v>6.000000000000016</v>
+        <v>14.00000001798159</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>2.533081104907933e-07</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>9.001158655489817e-08</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B99">
-        <v>2.532164866189858</v>
+        <v>1.470368209011646e-06</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B100">
-        <v>2.59657254500278</v>
+        <v>2.000000623386176</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>3.823256653484541e-08</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1.313146234604275e-08</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B103">
-        <v>7.704891379964334</v>
+        <v>8.6147336876697</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B104">
-        <v>6.999999999999999</v>
+        <v>6.350602400498083</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B105">
-        <v>4.431324571809327</v>
+        <v>5.833502582396596</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B106">
-        <v>3.98384858764311</v>
+        <v>2.899687254795847e-06</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>1.360183759698628e-07</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B108">
-        <v>2.027744140691072</v>
+        <v>9.860147030728406</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B109">
-        <v>1.294387044152847</v>
+        <v>5.076024221326964</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>9.18751926025861e-09</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>5.196618191954324e-08</v>
       </c>
     </row>
   </sheetData>
